--- a/learn_13/turbineLineInterplator/turbineLineInterplator/outcome.xlsx
+++ b/learn_13/turbineLineInterplator/turbineLineInterplator/outcome.xlsx
@@ -13,24 +13,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<file path=xl/sharedStrings.xml><sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>speed:2500</t>
   </si>
   <si>
-    <t>娴侀噺</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>presure_ratio</t>
-  </si>
-  <si>
-    <t>speed:2300</t>
-  </si>
-</sst>
+    <t>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
